--- a/数据整理/stocks/A股/深证主板/000822-山东海化.xlsx
+++ b/数据整理/stocks/A股/深证主板/000822-山东海化.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1277,4 +1278,72 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>8</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.43</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>11</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.79</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/000822-山东海化.xlsx
+++ b/数据整理/stocks/A股/深证主板/000822-山东海化.xlsx
@@ -8,7 +8,8 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1286,7 +1287,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1297,17 +1298,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1317,14 +1338,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>8</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2.43</v>
+          <t>006102</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>浙商丰利增强债券</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>48.75</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>45.10</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.0432</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -1333,13 +1376,195 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>688888</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>浙商聚潮产业成长混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.57</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2781</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010381</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>浙商智选价值混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.73</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1550</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010382</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>浙商智选价值混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.73</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0207</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.43</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>2021-Q2</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="C4" t="n">
         <v>11</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D4" t="n">
         <v>0.79</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/000822-山东海化.xlsx
+++ b/数据整理/stocks/A股/深证主板/000822-山东海化.xlsx
@@ -9,7 +9,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1495,7 +1496,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1506,17 +1507,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1526,14 +1547,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>4</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.5</v>
+          <t>006102</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>浙商丰利增强债券</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>48.75</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>47.92</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.0822</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -1542,14 +1585,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>8</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2.43</v>
+          <t>688888</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>浙商聚潮产业成长混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>8.25</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.40</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3556</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -1558,13 +1623,325 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>671010</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>西部利得策略优选混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>6.79</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.07</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3524</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010381</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>浙商智选价值混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.43</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1422</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011060</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>西部利得策略优选混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.07</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0685</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>007423</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>西部利得聚禾灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>69.21</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0281</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>007424</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>西部利得聚禾灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>69.21</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0192</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010382</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>浙商智选价值混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.43</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0166</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>8</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.06</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>8</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.43</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2021-Q2</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>11</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>0.79</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/000822-山东海化.xlsx
+++ b/数据整理/stocks/A股/深证主板/000822-山东海化.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1856,7 +1857,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1867,17 +1868,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1887,14 +1908,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>8</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2.06</v>
+          <t>006102</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>浙商丰利增强债券</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>68.61</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>48.75</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.0309</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -1903,14 +1946,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>4</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.5</v>
+          <t>671010</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>西部利得策略优选混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>6.43</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.00</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9.75</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.6269</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -1919,14 +1984,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>8</v>
-      </c>
-      <c r="D4" t="n">
-        <v>2.43</v>
+          <t>110002</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达策略成长混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>11.53</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.85</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4232</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -1935,13 +2022,683 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>112002</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>易方达策略成长二号混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>9.70</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.12</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3608</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>688888</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>浙商聚潮产业成长混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>7.31</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.23</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3604</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>519957</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>长信睿进灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>11.36</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>55.39</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3556</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>519956</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>长信睿进灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>11.35</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>55.39</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3553</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>013531</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>浙商聚潮产业成长混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.23</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2495</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010381</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>浙商智选价值混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.58</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2029</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011060</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>西部利得策略优选混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.00</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>9.75</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1228</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>007423</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>西部利得聚禾灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>76.98</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0336</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>014321</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>德邦周期精选混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.63</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0245</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>007424</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>西部利得聚禾灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>76.98</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0240</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010382</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>浙商智选价值混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.58</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0200</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>006522</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>财通新兴蓝筹混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>91.67</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0166</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>014322</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>德邦周期精选混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>92.63</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>006523</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>财通新兴蓝筹混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>91.67</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>015245</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>南华丰汇混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>87.58</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>18</v>
+      </c>
+      <c r="D2" t="n">
+        <v>5.21</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.06</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>8</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2.43</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2021-Q2</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>11</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.79</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/000822-山东海化.xlsx
+++ b/数据整理/stocks/A股/深证主板/000822-山东海化.xlsx
@@ -7,11 +7,12 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -455,7 +456,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -486,14 +487,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>5.21</v>
+        <v>1.57</v>
       </c>
     </row>
     <row r="3">
@@ -502,14 +503,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="D3" t="n">
-        <v>2.06</v>
+        <v>5.21</v>
       </c>
     </row>
     <row r="4">
@@ -518,14 +519,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D4" t="n">
-        <v>1.5</v>
+        <v>2.06</v>
       </c>
     </row>
     <row r="5">
@@ -534,14 +535,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
-        <v>2.43</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="6">
@@ -550,13 +551,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>8</v>
+      </c>
+      <c r="D6" t="n">
+        <v>2.43</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2021-Q2</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>11</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.79</v>
       </c>
     </row>
@@ -566,6 +583,100 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>006102</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>浙商丰利增强债券</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>93.25</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>44.13</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.5666</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1305,7 +1416,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1665,7 +1776,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1873,7 +1984,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2233,7 +2344,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
